--- a/game/assets/i18n/quest_main_dialogs.xlsx
+++ b/game/assets/i18n/quest_main_dialogs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{060CB307-EC31-416F-AB53-4AAE2EE40DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FD3165F-8AF4-4CCE-8976-9134C696105F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A419FADA-8948-4167-94DF-027709B4B4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Wow, thank you !</t>
   </si>
   <si>
-    <t>You can now roam freely in the station</t>
-  </si>
-  <si>
     <t>Qui êtes vous ?</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Super, merci !</t>
   </si>
   <si>
-    <t>Vous pouvez maintenant vous balader librement dans la station</t>
-  </si>
-  <si>
     <t>Bonjour, enchanté de vous rencontrer</t>
   </si>
   <si>
@@ -348,6 +342,12 @@
   </si>
   <si>
     <t>Well, I'm off in search of pickles to put in that sandwich</t>
+  </si>
+  <si>
+    <t>You can now roam freely in this area or in the station</t>
+  </si>
+  <si>
+    <t>Vous pouvez désormais vous balader librement dans cette zone ou dans la station.</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,15 +780,15 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,15 +836,15 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,15 +860,15 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,239 +892,239 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
         <v>85</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/game/assets/i18n/quest_main_dialogs.xlsx
+++ b/game/assets/i18n/quest_main_dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A419FADA-8948-4167-94DF-027709B4B4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEF4865-761C-4CCA-BD07-50C2860EDF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>Super, merci !</t>
   </si>
   <si>
-    <t>Bonjour, enchanté de vous rencontrer</t>
-  </si>
-  <si>
     <t>Who is "someone" ?</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t>I was sure it was that bitchy Administrator</t>
   </si>
   <si>
-    <t>Hello, nice to meet you</t>
-  </si>
-  <si>
     <t>I'll look it up</t>
   </si>
   <si>
@@ -348,6 +342,12 @@
   </si>
   <si>
     <t>Vous pouvez désormais vous balader librement dans cette zone ou dans la station.</t>
+  </si>
+  <si>
+    <t>Hello, pleased to meet you my name is %s</t>
+  </si>
+  <si>
+    <t>Bonjour, enchanté de vous rencontrer je m'appelle %s</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
         <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,234 +897,234 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
         <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
         <v>82</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
         <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
